--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>384.2227798373089</v>
+        <v>501.6177152737847</v>
       </c>
       <c r="AB2" t="n">
-        <v>525.7105580861322</v>
+        <v>686.3354878493471</v>
       </c>
       <c r="AC2" t="n">
-        <v>475.5374802617932</v>
+        <v>620.8325921669118</v>
       </c>
       <c r="AD2" t="n">
-        <v>384222.7798373089</v>
+        <v>501617.7152737847</v>
       </c>
       <c r="AE2" t="n">
-        <v>525710.5580861322</v>
+        <v>686335.4878493472</v>
       </c>
       <c r="AF2" t="n">
         <v>6.539484830173566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.00462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>475537.4802617932</v>
+        <v>620832.5921669118</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.614546627434</v>
+        <v>346.7112380605691</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.8478319642277</v>
+        <v>474.3856117347701</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.0770915101123</v>
+        <v>429.1109147551905</v>
       </c>
       <c r="AD3" t="n">
-        <v>258614.546627434</v>
+        <v>346711.2380605691</v>
       </c>
       <c r="AE3" t="n">
-        <v>353847.8319642277</v>
+        <v>474385.6117347701</v>
       </c>
       <c r="AF3" t="n">
         <v>8.869474635084859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.69675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>320077.0915101123</v>
+        <v>429110.9147551905</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.4879661155665</v>
+        <v>313.7288164706518</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.2050242350142</v>
+        <v>429.2576074336992</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.4542289397118</v>
+        <v>388.2898638470621</v>
       </c>
       <c r="AD4" t="n">
-        <v>235487.9661155665</v>
+        <v>313728.8164706518</v>
       </c>
       <c r="AE4" t="n">
-        <v>322205.0242350142</v>
+        <v>429257.6074336992</v>
       </c>
       <c r="AF4" t="n">
         <v>9.736406588454541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>291454.2289397118</v>
+        <v>388289.8638470621</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.9702286507067</v>
+        <v>296.1769135870109</v>
       </c>
       <c r="AB5" t="n">
-        <v>298.2364830075716</v>
+        <v>405.2423195729965</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.7732116469497</v>
+        <v>366.5665613541165</v>
       </c>
       <c r="AD5" t="n">
-        <v>217970.2286507067</v>
+        <v>296176.9135870109</v>
       </c>
       <c r="AE5" t="n">
-        <v>298236.4830075715</v>
+        <v>405242.3195729965</v>
       </c>
       <c r="AF5" t="n">
         <v>1.024737164403048e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>269773.2116469498</v>
+        <v>366566.5613541165</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>203.2230241792097</v>
+        <v>281.4970289232181</v>
       </c>
       <c r="AB6" t="n">
-        <v>278.0587072489353</v>
+        <v>385.1566537451913</v>
       </c>
       <c r="AC6" t="n">
-        <v>251.5211744870252</v>
+        <v>348.397843282508</v>
       </c>
       <c r="AD6" t="n">
-        <v>203223.0241792097</v>
+        <v>281497.0289232181</v>
       </c>
       <c r="AE6" t="n">
-        <v>278058.7072489353</v>
+        <v>385156.6537451913</v>
       </c>
       <c r="AF6" t="n">
         <v>1.050488826837727e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.94212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>251521.1744870252</v>
+        <v>348397.843282508</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>202.4895675418603</v>
+        <v>280.7635722858687</v>
       </c>
       <c r="AB7" t="n">
-        <v>277.0551595198912</v>
+        <v>384.1531060161466</v>
       </c>
       <c r="AC7" t="n">
-        <v>250.6134039447526</v>
+        <v>347.4900727402353</v>
       </c>
       <c r="AD7" t="n">
-        <v>202489.5675418603</v>
+        <v>280763.5722858687</v>
       </c>
       <c r="AE7" t="n">
-        <v>277055.1595198911</v>
+        <v>384153.1060161466</v>
       </c>
       <c r="AF7" t="n">
         <v>1.055533386303604e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.87268518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>250613.4039447526</v>
+        <v>347490.0727402354</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.1579676421811</v>
+        <v>412.9303047543387</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.5812792331718</v>
+        <v>564.9894601642275</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.2963290747958</v>
+        <v>511.0676590538404</v>
       </c>
       <c r="AD2" t="n">
-        <v>316157.9676421811</v>
+        <v>412930.3047543387</v>
       </c>
       <c r="AE2" t="n">
-        <v>432581.2792331718</v>
+        <v>564989.4601642275</v>
       </c>
       <c r="AF2" t="n">
         <v>8.135439696551918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>391296.3290747958</v>
+        <v>511067.6590538404</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.9046982396688</v>
+        <v>307.2817716328321</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.5657508108202</v>
+        <v>420.4364762630498</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.5440370493329</v>
+        <v>380.310609054804</v>
       </c>
       <c r="AD3" t="n">
-        <v>229904.6982396688</v>
+        <v>307281.7716328321</v>
       </c>
       <c r="AE3" t="n">
-        <v>314565.7508108202</v>
+        <v>420436.4762630498</v>
       </c>
       <c r="AF3" t="n">
         <v>1.046290339423222e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.41203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>284544.0370493329</v>
+        <v>380310.609054804</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.9697438107303</v>
+        <v>287.3126517851126</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.2898666930407</v>
+        <v>393.1138455120084</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.8713250298018</v>
+        <v>355.5956118350889</v>
       </c>
       <c r="AD4" t="n">
-        <v>209969.7438107303</v>
+        <v>287312.6517851126</v>
       </c>
       <c r="AE4" t="n">
-        <v>287289.8666930407</v>
+        <v>393113.8455120084</v>
       </c>
       <c r="AF4" t="n">
         <v>1.127824274261634e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.23148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>259871.3250298018</v>
+        <v>355595.6118350889</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.3903194044131</v>
+        <v>272.8005471864996</v>
       </c>
       <c r="AB5" t="n">
-        <v>267.3416550215173</v>
+        <v>373.2577437713161</v>
       </c>
       <c r="AC5" t="n">
-        <v>241.8269426827113</v>
+        <v>337.6345485763146</v>
       </c>
       <c r="AD5" t="n">
-        <v>195390.3194044131</v>
+        <v>272800.5471864996</v>
       </c>
       <c r="AE5" t="n">
-        <v>267341.6550215173</v>
+        <v>373257.7437713161</v>
       </c>
       <c r="AF5" t="n">
         <v>1.164740822010127e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.74537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>241826.9426827113</v>
+        <v>337634.5485763146</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>195.6719118155006</v>
+        <v>273.0821395975871</v>
       </c>
       <c r="AB6" t="n">
-        <v>267.7269421813474</v>
+        <v>373.6430309311465</v>
       </c>
       <c r="AC6" t="n">
-        <v>242.1754585767613</v>
+        <v>337.9830644703646</v>
       </c>
       <c r="AD6" t="n">
-        <v>195671.9118155006</v>
+        <v>273082.1395975871</v>
       </c>
       <c r="AE6" t="n">
-        <v>267726.9421813474</v>
+        <v>373643.0309311465</v>
       </c>
       <c r="AF6" t="n">
         <v>1.164636957124983e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.74537037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>242175.4585767613</v>
+        <v>337983.0644703646</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.316937655938</v>
+        <v>266.1607915737525</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.7682744083367</v>
+        <v>364.1729372166117</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.7854776929621</v>
+        <v>329.416783208585</v>
       </c>
       <c r="AD2" t="n">
-        <v>191316.937655938</v>
+        <v>266160.7915737525</v>
       </c>
       <c r="AE2" t="n">
-        <v>261768.2744083367</v>
+        <v>364172.9372166117</v>
       </c>
       <c r="AF2" t="n">
         <v>1.530002162091666e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.6712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>236785.4776929621</v>
+        <v>329416.783208585</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.1991131540631</v>
+        <v>253.6543309432243</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.5023293761643</v>
+        <v>347.0610460356562</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.9266684673674</v>
+        <v>313.9380269053541</v>
       </c>
       <c r="AD3" t="n">
-        <v>188199.1131540631</v>
+        <v>253654.3309432243</v>
       </c>
       <c r="AE3" t="n">
-        <v>257502.3293761642</v>
+        <v>347061.0460356562</v>
       </c>
       <c r="AF3" t="n">
         <v>1.583290043989195e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.13888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>232926.6684673674</v>
+        <v>313938.0269053541</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.4533153863214</v>
+        <v>316.694961316149</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.6846371110361</v>
+        <v>433.3160176683837</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.4606998149324</v>
+        <v>391.9609451049628</v>
       </c>
       <c r="AD2" t="n">
-        <v>231453.3153863214</v>
+        <v>316694.961316149</v>
       </c>
       <c r="AE2" t="n">
-        <v>316684.637111036</v>
+        <v>433316.0176683837</v>
       </c>
       <c r="AF2" t="n">
         <v>1.190879214600939e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.43055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>286460.6998149324</v>
+        <v>391960.9451049629</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.5306384748218</v>
+        <v>260.3570340838743</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.4829604783481</v>
+        <v>356.2319801752504</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.3863410924287</v>
+        <v>322.2336999620481</v>
       </c>
       <c r="AD3" t="n">
-        <v>184530.6384748218</v>
+        <v>260357.0340838743</v>
       </c>
       <c r="AE3" t="n">
-        <v>252482.9604783481</v>
+        <v>356231.9801752504</v>
       </c>
       <c r="AF3" t="n">
         <v>1.399573178984386e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>228386.3410924287</v>
+        <v>322233.6999620481</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.6556631090714</v>
+        <v>260.4820587181239</v>
       </c>
       <c r="AB4" t="n">
-        <v>252.654024698626</v>
+        <v>356.4030443955285</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.5410791836134</v>
+        <v>322.3884380532328</v>
       </c>
       <c r="AD4" t="n">
-        <v>184655.6631090714</v>
+        <v>260482.0587181239</v>
       </c>
       <c r="AE4" t="n">
-        <v>252654.024698626</v>
+        <v>356403.0443955285</v>
       </c>
       <c r="AF4" t="n">
         <v>1.399644919776543e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>228541.0791836134</v>
+        <v>322388.4380532329</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.8282962929199</v>
+        <v>257.8382418223363</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.5219849199203</v>
+        <v>352.7856574815753</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.5170796925592</v>
+        <v>319.1162894694192</v>
       </c>
       <c r="AD2" t="n">
-        <v>183828.2962929199</v>
+        <v>257838.2418223363</v>
       </c>
       <c r="AE2" t="n">
-        <v>251521.9849199203</v>
+        <v>352785.6574815753</v>
       </c>
       <c r="AF2" t="n">
         <v>1.75174458993031e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.6712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>227517.0796925592</v>
+        <v>319116.2894694192</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.4161084983573</v>
+        <v>431.2143241854517</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.880431876054</v>
+        <v>590.0064621838842</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.5171064479016</v>
+        <v>533.6970735123241</v>
       </c>
       <c r="AD2" t="n">
-        <v>324416.1084983573</v>
+        <v>431214.3241854517</v>
       </c>
       <c r="AE2" t="n">
-        <v>443880.431876054</v>
+        <v>590006.4621838842</v>
       </c>
       <c r="AF2" t="n">
         <v>7.713753561152491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.72453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>401517.1064479016</v>
+        <v>533697.0735123241</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.0871635091574</v>
+        <v>321.4333563798204</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.2883843098767</v>
+        <v>439.7992988377354</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.7205104390079</v>
+        <v>397.8254710188539</v>
       </c>
       <c r="AD3" t="n">
-        <v>234087.1635091574</v>
+        <v>321433.3563798204</v>
       </c>
       <c r="AE3" t="n">
-        <v>320288.3843098767</v>
+        <v>439799.2988377354</v>
       </c>
       <c r="AF3" t="n">
         <v>1.004667388583787e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.67824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>289720.5104390078</v>
+        <v>397825.4710188539</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.6094741827458</v>
+        <v>291.1794185468773</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.269906361601</v>
+        <v>398.4045263851647</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.3760767019258</v>
+        <v>360.3813575512283</v>
       </c>
       <c r="AD4" t="n">
-        <v>213609.4741827458</v>
+        <v>291179.4185468773</v>
       </c>
       <c r="AE4" t="n">
-        <v>292269.906361601</v>
+        <v>398404.5263851646</v>
       </c>
       <c r="AF4" t="n">
         <v>1.087851520071607e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.40509259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>264376.0767019258</v>
+        <v>360381.3575512284</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.5648900256108</v>
+        <v>275.2021541974465</v>
       </c>
       <c r="AB5" t="n">
-        <v>270.3169984807236</v>
+        <v>376.5437284351174</v>
       </c>
       <c r="AC5" t="n">
-        <v>244.5183235380926</v>
+        <v>340.6069234757111</v>
       </c>
       <c r="AD5" t="n">
-        <v>197564.8900256108</v>
+        <v>275202.1541974465</v>
       </c>
       <c r="AE5" t="n">
-        <v>270316.9984807235</v>
+        <v>376543.7284351174</v>
       </c>
       <c r="AF5" t="n">
         <v>1.13078292996915e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.81481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>244518.3235380926</v>
+        <v>340606.9234757111</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>197.1512752319556</v>
+        <v>274.7885394037913</v>
       </c>
       <c r="AB6" t="n">
-        <v>269.7510724726479</v>
+        <v>375.9778024270415</v>
       </c>
       <c r="AC6" t="n">
-        <v>244.0064087139454</v>
+        <v>340.0950086515638</v>
       </c>
       <c r="AD6" t="n">
-        <v>197151.2752319556</v>
+        <v>274788.5394037913</v>
       </c>
       <c r="AE6" t="n">
-        <v>269751.0724726479</v>
+        <v>375977.8024270415</v>
       </c>
       <c r="AF6" t="n">
         <v>1.135981033224873e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.75694444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>244006.4087139454</v>
+        <v>340095.0086515638</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.166784013552</v>
+        <v>264.6156111108778</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.5628275705129</v>
+        <v>362.0587531387555</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.5996384129937</v>
+        <v>327.5043738918435</v>
       </c>
       <c r="AD2" t="n">
-        <v>191166.784013552</v>
+        <v>264615.6111108778</v>
       </c>
       <c r="AE2" t="n">
-        <v>261562.8275705129</v>
+        <v>362058.7531387556</v>
       </c>
       <c r="AF2" t="n">
         <v>1.850260104345812e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.23842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>236599.6384129937</v>
+        <v>327504.3738918435</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.7747513561292</v>
+        <v>358.0375910195431</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.8542046612854</v>
+        <v>489.8828275366649</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.3649612690656</v>
+        <v>443.1290980314316</v>
       </c>
       <c r="AD2" t="n">
-        <v>271774.7513561292</v>
+        <v>358037.5910195431</v>
       </c>
       <c r="AE2" t="n">
-        <v>371854.2046612854</v>
+        <v>489882.827536665</v>
       </c>
       <c r="AF2" t="n">
         <v>9.772754449979646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.1087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>336364.9612690656</v>
+        <v>443129.0980314316</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.1211473071845</v>
+        <v>283.8286975759315</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.3922912856829</v>
+        <v>388.3469456617947</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.3457287490396</v>
+        <v>351.2836582161937</v>
       </c>
       <c r="AD3" t="n">
-        <v>207121.1473071846</v>
+        <v>283828.6975759315</v>
       </c>
       <c r="AE3" t="n">
-        <v>283392.2912856829</v>
+        <v>388346.9456617947</v>
       </c>
       <c r="AF3" t="n">
         <v>1.198619330455388e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>256345.7287490396</v>
+        <v>351283.6582161937</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.9633019362193</v>
+        <v>266.6366867861851</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.9161702984251</v>
+        <v>364.8240780412769</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.1101357998555</v>
+        <v>330.0057800668262</v>
       </c>
       <c r="AD4" t="n">
-        <v>189963.3019362193</v>
+        <v>266636.6867861851</v>
       </c>
       <c r="AE4" t="n">
-        <v>259916.1702984251</v>
+        <v>364824.078041277</v>
       </c>
       <c r="AF4" t="n">
         <v>1.268383231666694e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>235110.1357998555</v>
+        <v>330005.7800668261</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>190.3091983054791</v>
+        <v>266.982583155445</v>
       </c>
       <c r="AB5" t="n">
-        <v>260.389440970717</v>
+        <v>365.2973487135691</v>
       </c>
       <c r="AC5" t="n">
-        <v>235.5382381834235</v>
+        <v>330.4338824503943</v>
       </c>
       <c r="AD5" t="n">
-        <v>190309.1983054791</v>
+        <v>266982.583155445</v>
       </c>
       <c r="AE5" t="n">
-        <v>260389.440970717</v>
+        <v>365297.3487135691</v>
       </c>
       <c r="AF5" t="n">
         <v>1.266640747547633e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.74537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>235538.2381834235</v>
+        <v>330433.8824503943</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.7988013876764</v>
+        <v>394.2423859142714</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.4614580145067</v>
+        <v>539.4198251544551</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.5739083373494</v>
+        <v>487.9383541221927</v>
       </c>
       <c r="AD2" t="n">
-        <v>297798.8013876764</v>
+        <v>394242.3859142715</v>
       </c>
       <c r="AE2" t="n">
-        <v>407461.4580145067</v>
+        <v>539419.8251544551</v>
       </c>
       <c r="AF2" t="n">
         <v>8.627788852093088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.42824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>368573.9083373494</v>
+        <v>487938.3541221927</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.651375841766</v>
+        <v>302.792779501504</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.7461674626715</v>
+        <v>414.2944391886106</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.2798665680932</v>
+        <v>374.7547593783462</v>
       </c>
       <c r="AD3" t="n">
-        <v>225651.375841766</v>
+        <v>302792.779501504</v>
       </c>
       <c r="AE3" t="n">
-        <v>308746.1674626715</v>
+        <v>414294.4391886106</v>
       </c>
       <c r="AF3" t="n">
         <v>1.090835895535494e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.15740740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>279279.8665680931</v>
+        <v>374754.7593783462</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.9987342569363</v>
+        <v>273.1732923055974</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.1741150641081</v>
+        <v>373.76775008762</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.5799539072025</v>
+        <v>338.0958806055887</v>
       </c>
       <c r="AD4" t="n">
-        <v>195998.7342569363</v>
+        <v>273173.2923055975</v>
       </c>
       <c r="AE4" t="n">
-        <v>268174.1150641081</v>
+        <v>373767.7500876199</v>
       </c>
       <c r="AF4" t="n">
         <v>1.177520403233434e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.96527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>242579.9539072025</v>
+        <v>338095.8806055887</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.3145578664455</v>
+        <v>270.4891159151065</v>
       </c>
       <c r="AB5" t="n">
-        <v>264.5015065091355</v>
+        <v>370.0951415326455</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.2578539581768</v>
+        <v>334.7737806565625</v>
       </c>
       <c r="AD5" t="n">
-        <v>193314.5578664455</v>
+        <v>270489.1159151066</v>
       </c>
       <c r="AE5" t="n">
-        <v>264501.5065091355</v>
+        <v>370095.1415326454</v>
       </c>
       <c r="AF5" t="n">
         <v>1.199755009916321e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>239257.8539581768</v>
+        <v>334773.7806565625</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.9717737926218</v>
+        <v>481.024308287391</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.0022382044584</v>
+        <v>658.158679893567</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.4736035407553</v>
+        <v>595.344939216033</v>
       </c>
       <c r="AD2" t="n">
-        <v>363971.7737926219</v>
+        <v>481024.308287391</v>
       </c>
       <c r="AE2" t="n">
-        <v>498002.2382044584</v>
+        <v>658158.679893567</v>
       </c>
       <c r="AF2" t="n">
         <v>6.89534935811262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.24074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>450473.6035407553</v>
+        <v>595344.939216033</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.7818666250485</v>
+        <v>341.5458961895072</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.2355459820053</v>
+        <v>467.3181631079827</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.0958728217359</v>
+        <v>422.7179735061173</v>
       </c>
       <c r="AD3" t="n">
-        <v>253781.8666250485</v>
+        <v>341545.8961895072</v>
       </c>
       <c r="AE3" t="n">
-        <v>347235.5459820053</v>
+        <v>467318.1631079827</v>
       </c>
       <c r="AF3" t="n">
         <v>9.225179188210342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.37268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>314095.8728217359</v>
+        <v>422717.9735061174</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.2618169471837</v>
+        <v>299.364496761356</v>
       </c>
       <c r="AB4" t="n">
-        <v>302.740179329436</v>
+        <v>409.6037114983801</v>
       </c>
       <c r="AC4" t="n">
-        <v>273.8470815128344</v>
+        <v>370.5117081553936</v>
       </c>
       <c r="AD4" t="n">
-        <v>221261.8169471837</v>
+        <v>299364.496761356</v>
       </c>
       <c r="AE4" t="n">
-        <v>302740.179329436</v>
+        <v>409603.7114983801</v>
       </c>
       <c r="AF4" t="n">
         <v>1.012103329900494e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>273847.0815128345</v>
+        <v>370511.7081553936</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.3704508901825</v>
+        <v>282.6771413386599</v>
       </c>
       <c r="AB5" t="n">
-        <v>293.3111082646383</v>
+        <v>386.771335614884</v>
       </c>
       <c r="AC5" t="n">
-        <v>265.3179077566737</v>
+        <v>349.8584221807776</v>
       </c>
       <c r="AD5" t="n">
-        <v>214370.4508901825</v>
+        <v>282677.1413386599</v>
       </c>
       <c r="AE5" t="n">
-        <v>293311.1082646383</v>
+        <v>386771.335614884</v>
       </c>
       <c r="AF5" t="n">
         <v>1.058716539466952e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.13888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>265317.9077566737</v>
+        <v>349858.4221807776</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>200.5630165842811</v>
+        <v>278.6315309796723</v>
       </c>
       <c r="AB6" t="n">
-        <v>274.4191675063029</v>
+        <v>381.2359530419846</v>
       </c>
       <c r="AC6" t="n">
-        <v>248.2289873093024</v>
+        <v>344.8513287516775</v>
       </c>
       <c r="AD6" t="n">
-        <v>200563.0165842811</v>
+        <v>278631.5309796723</v>
       </c>
       <c r="AE6" t="n">
-        <v>274419.1675063029</v>
+        <v>381235.9530419846</v>
       </c>
       <c r="AF6" t="n">
         <v>1.079275083038733e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>248228.9873093024</v>
+        <v>344851.3287516775</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>200.3981820622902</v>
+        <v>278.4666964576813</v>
       </c>
       <c r="AB7" t="n">
-        <v>274.1936336413293</v>
+        <v>381.0104191770108</v>
       </c>
       <c r="AC7" t="n">
-        <v>248.0249780798629</v>
+        <v>344.6473195222379</v>
       </c>
       <c r="AD7" t="n">
-        <v>200398.1820622902</v>
+        <v>278466.6964576814</v>
       </c>
       <c r="AE7" t="n">
-        <v>274193.6336413292</v>
+        <v>381010.4191770108</v>
       </c>
       <c r="AF7" t="n">
         <v>1.083719051043138e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.78009259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>248024.9780798629</v>
+        <v>344647.3195222379</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.4834068364955</v>
+        <v>332.6124958909975</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.9352742620194</v>
+        <v>455.0950907057558</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.9239077360705</v>
+        <v>411.661453978769</v>
       </c>
       <c r="AD2" t="n">
-        <v>237483.4068364955</v>
+        <v>332612.4958909975</v>
       </c>
       <c r="AE2" t="n">
-        <v>324935.2742620194</v>
+        <v>455095.0907057557</v>
       </c>
       <c r="AF2" t="n">
         <v>1.117901923850988e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.87037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>293923.9077360705</v>
+        <v>411661.453978769</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.5518043992603</v>
+        <v>264.1568439347815</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.2990941494537</v>
+        <v>361.4310476490413</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.5021279710702</v>
+        <v>326.9365757330773</v>
       </c>
       <c r="AD3" t="n">
-        <v>197551.8043992603</v>
+        <v>264156.8439347815</v>
       </c>
       <c r="AE3" t="n">
-        <v>270299.0941494537</v>
+        <v>361431.0476490413</v>
       </c>
       <c r="AF3" t="n">
         <v>1.332117703247318e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>244502.1279710702</v>
+        <v>326936.5757330773</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.4563722761864</v>
+        <v>262.5801427710563</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.1178344227532</v>
+        <v>359.2737355576863</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.7697463656494</v>
+        <v>324.9851544799147</v>
       </c>
       <c r="AD4" t="n">
-        <v>186456.3722761864</v>
+        <v>262580.1427710563</v>
       </c>
       <c r="AE4" t="n">
-        <v>255117.8344227532</v>
+        <v>359273.7355576863</v>
       </c>
       <c r="AF4" t="n">
         <v>1.351775435500978e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.78009259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>230769.7463656494</v>
+        <v>324985.1544799148</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.6604016938901</v>
+        <v>282.8005488353627</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.1301229277976</v>
+        <v>386.9401871962274</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.0131427747843</v>
+        <v>350.0111588041821</v>
       </c>
       <c r="AD2" t="n">
-        <v>207660.4016938901</v>
+        <v>282800.5488353628</v>
       </c>
       <c r="AE2" t="n">
-        <v>284130.1229277976</v>
+        <v>386940.1871962274</v>
       </c>
       <c r="AF2" t="n">
         <v>1.400751030241499e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>257013.1427747843</v>
+        <v>350011.1588041821</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.4562032245784</v>
+        <v>256.2295824161816</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.590579586428</v>
+        <v>350.5846187130314</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.7201804119508</v>
+        <v>317.125314751767</v>
       </c>
       <c r="AD3" t="n">
-        <v>190456.2032245784</v>
+        <v>256229.5824161816</v>
       </c>
       <c r="AE3" t="n">
-        <v>260590.579586428</v>
+        <v>350584.6187130313</v>
       </c>
       <c r="AF3" t="n">
         <v>1.511962553237081e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.02314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>235720.1804119509</v>
+        <v>317125.314751767</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.5106732989749</v>
+        <v>260.8569274137104</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.1921314777245</v>
+        <v>356.9159562828694</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.8369526139708</v>
+        <v>322.8523983499224</v>
       </c>
       <c r="AD2" t="n">
-        <v>186510.6732989749</v>
+        <v>260856.9274137104</v>
       </c>
       <c r="AE2" t="n">
-        <v>255192.1314777245</v>
+        <v>356915.9562828694</v>
       </c>
       <c r="AF2" t="n">
         <v>1.652421833070741e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.43981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>230836.9526139708</v>
+        <v>322852.3983499224</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.2313634453132</v>
+        <v>260.5776175600487</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.8099674136637</v>
+        <v>356.5337922188084</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.4912617518132</v>
+        <v>322.5067074877647</v>
       </c>
       <c r="AD3" t="n">
-        <v>186231.3634453132</v>
+        <v>260577.6175600487</v>
       </c>
       <c r="AE3" t="n">
-        <v>254809.9674136637</v>
+        <v>356533.7922188084</v>
       </c>
       <c r="AF3" t="n">
         <v>1.661766390164543e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.34722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>230491.2617518132</v>
+        <v>322506.7074877648</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.1366668773615</v>
+        <v>280.0946207205793</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.0993287943029</v>
+        <v>383.2378169724573</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.2259893445517</v>
+        <v>346.6621375982596</v>
       </c>
       <c r="AD2" t="n">
-        <v>198136.6668773615</v>
+        <v>280094.6207205792</v>
       </c>
       <c r="AE2" t="n">
-        <v>271099.3287943029</v>
+        <v>383237.8169724573</v>
       </c>
       <c r="AF2" t="n">
         <v>1.96199694251229e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.19907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>245225.9893445517</v>
+        <v>346662.1375982596</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.765401668454</v>
+        <v>375.969753590626</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.7873649412202</v>
+        <v>514.4184034775993</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.2546760766703</v>
+        <v>465.3230330404603</v>
       </c>
       <c r="AD2" t="n">
-        <v>279765.4016684541</v>
+        <v>375969.753590626</v>
       </c>
       <c r="AE2" t="n">
-        <v>382787.3649412201</v>
+        <v>514418.4034775993</v>
       </c>
       <c r="AF2" t="n">
         <v>9.171763659010826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.75694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>346254.6760766702</v>
+        <v>465323.0330404603</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.1277495944676</v>
+        <v>288.0912311322078</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.8743012939588</v>
+        <v>394.1791321232005</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.3045434161766</v>
+        <v>356.559228987248</v>
       </c>
       <c r="AD3" t="n">
-        <v>211127.7495944676</v>
+        <v>288091.2311322078</v>
       </c>
       <c r="AE3" t="n">
-        <v>288874.3012939587</v>
+        <v>394179.1321232005</v>
       </c>
       <c r="AF3" t="n">
         <v>1.14678363649467e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>261304.5434161766</v>
+        <v>356559.228987248</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.2808726319671</v>
+        <v>269.2101887509262</v>
       </c>
       <c r="AB4" t="n">
-        <v>263.0871727683488</v>
+        <v>368.3452569643294</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.9785022445805</v>
+        <v>333.1909026154681</v>
       </c>
       <c r="AD4" t="n">
-        <v>192280.8726319671</v>
+        <v>269210.1887509262</v>
       </c>
       <c r="AE4" t="n">
-        <v>263087.1727683488</v>
+        <v>368345.2569643294</v>
       </c>
       <c r="AF4" t="n">
         <v>1.224718260087678e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.80324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>237978.5022445804</v>
+        <v>333190.9026154681</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.8534475584447</v>
+        <v>268.7827636774038</v>
       </c>
       <c r="AB5" t="n">
-        <v>262.5023509260924</v>
+        <v>367.7604351220727</v>
       </c>
       <c r="AC5" t="n">
-        <v>237.4494949781462</v>
+        <v>332.6618953490338</v>
       </c>
       <c r="AD5" t="n">
-        <v>191853.4475584448</v>
+        <v>268782.7636774038</v>
       </c>
       <c r="AE5" t="n">
-        <v>262502.3509260924</v>
+        <v>367760.4351220727</v>
       </c>
       <c r="AF5" t="n">
         <v>1.229008814008611e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.74537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>237449.4949781462</v>
+        <v>332661.8953490338</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.0936025131617</v>
+        <v>460.7938973834148</v>
       </c>
       <c r="AB2" t="n">
-        <v>470.8040472968772</v>
+        <v>630.4785391920074</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.8711698004929</v>
+        <v>570.3065522937088</v>
       </c>
       <c r="AD2" t="n">
-        <v>344093.6025131617</v>
+        <v>460793.8973834148</v>
       </c>
       <c r="AE2" t="n">
-        <v>470804.0472968773</v>
+        <v>630478.5391920074</v>
       </c>
       <c r="AF2" t="n">
         <v>7.283534910542473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.48842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>425871.1698004929</v>
+        <v>570306.5522937088</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.3422083648516</v>
+        <v>327.1996843196105</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.1610096865078</v>
+        <v>447.689043117391</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.6010817446136</v>
+        <v>404.9622291777848</v>
       </c>
       <c r="AD3" t="n">
-        <v>249342.2083648517</v>
+        <v>327199.6843196105</v>
       </c>
       <c r="AE3" t="n">
-        <v>341161.0096865079</v>
+        <v>447689.0431173909</v>
       </c>
       <c r="AF3" t="n">
         <v>9.585639056057393e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>308601.0817446136</v>
+        <v>404962.2291777848</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.6973798515807</v>
+        <v>295.5880101952627</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.8631592433681</v>
+        <v>404.4365559718225</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.4355173788385</v>
+        <v>365.8376987001424</v>
       </c>
       <c r="AD4" t="n">
-        <v>217697.3798515807</v>
+        <v>295588.0101952627</v>
       </c>
       <c r="AE4" t="n">
-        <v>297863.1592433681</v>
+        <v>404436.5559718225</v>
       </c>
       <c r="AF4" t="n">
         <v>1.046106120407834e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.65972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>269435.5173788386</v>
+        <v>365837.6987001424</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.0352037867799</v>
+        <v>278.8916687116809</v>
       </c>
       <c r="AB5" t="n">
-        <v>275.0652348681907</v>
+        <v>381.5918849633856</v>
       </c>
       <c r="AC5" t="n">
-        <v>248.813394908933</v>
+        <v>345.1732910300536</v>
       </c>
       <c r="AD5" t="n">
-        <v>201035.2037867799</v>
+        <v>278891.6687116809</v>
       </c>
       <c r="AE5" t="n">
-        <v>275065.2348681907</v>
+        <v>381591.8849633856</v>
       </c>
       <c r="AF5" t="n">
         <v>1.093831979552406e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.97685185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>248813.394908933</v>
+        <v>345173.2910300536</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>198.7418576170628</v>
+        <v>276.5983225419638</v>
       </c>
       <c r="AB6" t="n">
-        <v>271.9273774634929</v>
+        <v>378.4540275586862</v>
       </c>
       <c r="AC6" t="n">
-        <v>245.975010210928</v>
+        <v>342.3349063320481</v>
       </c>
       <c r="AD6" t="n">
-        <v>198741.8576170628</v>
+        <v>276598.3225419638</v>
       </c>
       <c r="AE6" t="n">
-        <v>271927.3774634929</v>
+        <v>378454.0275586862</v>
       </c>
       <c r="AF6" t="n">
         <v>1.108717127438587e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.76851851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>245975.010210928</v>
+        <v>342334.9063320481</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.449952601657</v>
+        <v>304.6451609525459</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.4198860136456</v>
+        <v>416.8289492112282</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.4163039099863</v>
+        <v>377.0473793216124</v>
       </c>
       <c r="AD2" t="n">
-        <v>214449.952601657</v>
+        <v>304645.1609525459</v>
       </c>
       <c r="AE2" t="n">
-        <v>293419.8860136456</v>
+        <v>416828.9492112282</v>
       </c>
       <c r="AF2" t="n">
         <v>2.052229949841082e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.36342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>265416.3039099863</v>
+        <v>377047.3793216124</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.5104630025051</v>
+        <v>299.4642683283577</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.5026790136164</v>
+        <v>409.7402233579627</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.4911952622406</v>
+        <v>370.6351915146932</v>
       </c>
       <c r="AD2" t="n">
-        <v>214510.4630025051</v>
+        <v>299464.2683283577</v>
       </c>
       <c r="AE2" t="n">
-        <v>293502.6790136164</v>
+        <v>409740.2233579627</v>
       </c>
       <c r="AF2" t="n">
         <v>1.290357802148038e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.78240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>265491.1952622406</v>
+        <v>370635.1915146932</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.7561467698201</v>
+        <v>258.2668442351578</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.0550226425172</v>
+        <v>353.3720902115684</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.1901222360165</v>
+        <v>319.6467538826192</v>
       </c>
       <c r="AD3" t="n">
-        <v>182756.1467698201</v>
+        <v>258266.8442351578</v>
       </c>
       <c r="AE3" t="n">
-        <v>250055.0226425172</v>
+        <v>353372.0902115685</v>
       </c>
       <c r="AF3" t="n">
         <v>1.451128539447229e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.93055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>226190.1222360166</v>
+        <v>319646.7538826192</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.2143330665515</v>
+        <v>350.7296471389957</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.195509763228</v>
+        <v>479.8837763155702</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.8687804105057</v>
+        <v>434.0843422251216</v>
       </c>
       <c r="AD2" t="n">
-        <v>255214.3330665515</v>
+        <v>350729.6471389958</v>
       </c>
       <c r="AE2" t="n">
-        <v>349195.509763228</v>
+        <v>479883.7763155702</v>
       </c>
       <c r="AF2" t="n">
         <v>1.038121224625784e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.57638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>315868.7804105057</v>
+        <v>434084.3422251216</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.8591939961755</v>
+        <v>278.1972923626702</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.1926546245676</v>
+        <v>380.6418086089467</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.8332153061052</v>
+        <v>344.3138886294417</v>
       </c>
       <c r="AD3" t="n">
-        <v>201859.1939961755</v>
+        <v>278197.2923626702</v>
       </c>
       <c r="AE3" t="n">
-        <v>276192.6546245676</v>
+        <v>380641.8086089467</v>
       </c>
       <c r="AF3" t="n">
         <v>1.267111447082124e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.21990740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>249833.2153061052</v>
+        <v>344313.8886294417</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.4848530198764</v>
+        <v>264.8902711940754</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.893291266523</v>
+        <v>362.4345551817341</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.2803175036288</v>
+        <v>327.8443099152817</v>
       </c>
       <c r="AD4" t="n">
-        <v>188484.8530198764</v>
+        <v>264890.2711940754</v>
       </c>
       <c r="AE4" t="n">
-        <v>257893.291266523</v>
+        <v>362434.5551817341</v>
       </c>
       <c r="AF4" t="n">
         <v>1.305854153181017e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.76851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>233280.3175036288</v>
+        <v>327844.3099152817</v>
       </c>
     </row>
   </sheetData>
